--- a/src/components/media/CPC-WEB.xlsx
+++ b/src/components/media/CPC-WEB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,11 +19,13 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Hoja1!$1:$1048576</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Hoja1!$1:$1048576</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">Hoja1!$1:$1048576</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">Hoja1!$1:$1048576</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$T$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hoja1!$A$1:$T$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hoja1!$A$1:$T$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hoja1!$A$1:$T$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hoja1!$A$1:$T$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hoja1!$A$1:$T$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -49,7 +51,6 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Pilar Garnham:
 </t>
@@ -60,7 +61,6 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Averiguar a qué año corresponde el dato</t>
         </r>
@@ -75,7 +75,6 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Pilar Garnham:
 </t>
@@ -86,7 +85,6 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Revisar, al parecer el dato no sería de todo el colegio sino que de alguna especialidad. Idem en las que siguen.</t>
         </r>
@@ -101,7 +99,6 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Pilar Garnham:
 </t>
@@ -112,7 +109,6 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ver qué hacer en este caso</t>
         </r>
@@ -127,7 +123,6 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Pilar Garnham:
 </t>
@@ -138,7 +133,6 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ver qué hacemos</t>
         </r>
@@ -149,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="463">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -272,7 +266,7 @@
     <t xml:space="preserve">Maipú</t>
   </si>
   <si>
-    <t xml:space="preserve">Metalmecánico, Químico</t>
+    <t xml:space="preserve">Metalmecánico,Químico</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.liceodmp.cl/v.7/</t>
@@ -299,7 +293,7 @@
     <t xml:space="preserve">Liceo Agustín Edwards Ross</t>
   </si>
   <si>
-    <t xml:space="preserve">Departamental 285</t>
+    <t xml:space="preserve">Departamental 28</t>
   </si>
   <si>
     <t xml:space="preserve">-33.5085977, -70.6084899</t>
@@ -308,7 +302,7 @@
     <t xml:space="preserve">San Joaquín</t>
   </si>
   <si>
-    <t xml:space="preserve">Metalmecánico, Electricidad</t>
+    <t xml:space="preserve">Metalmecánico,Electricidad</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.liceoaer.cl/v.7/</t>
@@ -345,7 +339,7 @@
     <t xml:space="preserve">Quinta Normal</t>
   </si>
   <si>
-    <t xml:space="preserve">Construcción, Metalmecánico, Electricidad</t>
+    <t xml:space="preserve">Construcción,Metalmecánico,Electricidad</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.liceovpr.cl/v.7/</t>
@@ -375,7 +369,7 @@
     <t xml:space="preserve">Renca</t>
   </si>
   <si>
-    <t xml:space="preserve">Electricidad, Químico</t>
+    <t xml:space="preserve">Electricidad,Químico</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.liceobdl.cl/</t>
@@ -445,7 +439,7 @@
     <t xml:space="preserve">Recoleta</t>
   </si>
   <si>
-    <t xml:space="preserve">Administración y Comercio, Construcción, Electricidad</t>
+    <t xml:space="preserve">Administración y Comercio,Construcción,Electricidad</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.coreduc.cl/rdc/</t>
@@ -478,7 +472,7 @@
     <t xml:space="preserve">Santiago</t>
   </si>
   <si>
-    <t xml:space="preserve">Construcción, Metalmecánico, Maderero</t>
+    <t xml:space="preserve">Construcción,Metalmecánico,Maderero</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.coreduc.cl/vbs/</t>
@@ -513,7 +507,7 @@
     <t xml:space="preserve">Rancagua</t>
   </si>
   <si>
-    <t xml:space="preserve">Construcción, Metalmecánico, Electricidad, Minero, Gráfica</t>
+    <t xml:space="preserve">Construcción,Metalmecánico,Electricidad,Minero,Gráfica</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.coreduc.cl/epl/</t>
@@ -546,7 +540,7 @@
     <t xml:space="preserve">Hualpen</t>
   </si>
   <si>
-    <t xml:space="preserve">Administración y Comercio, Construcción, Metalmecánico, Electricidad</t>
+    <t xml:space="preserve">Administración y Comercio,Construcción,Metalmecánico,Electricidad</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.coreduc.cl/hvl/</t>
@@ -612,7 +606,7 @@
     <t xml:space="preserve">Ovalle</t>
   </si>
   <si>
-    <t xml:space="preserve">Electricidad, Agropecuario</t>
+    <t xml:space="preserve">Electricidad,Agropecuario</t>
   </si>
   <si>
     <t xml:space="preserve">http://laotpb.webnode.cl/</t>
@@ -645,7 +639,7 @@
     <t xml:space="preserve">San Felipe</t>
   </si>
   <si>
-    <t xml:space="preserve">Alimentación, Agropecuario</t>
+    <t xml:space="preserve">Alimentación,Agropecuario</t>
   </si>
   <si>
     <t xml:space="preserve">sanfelipe.direccion@snaeduca.cl</t>
@@ -702,7 +696,7 @@
     <t xml:space="preserve">Talagante</t>
   </si>
   <si>
-    <t xml:space="preserve">Metalmecánico, Agropecuario</t>
+    <t xml:space="preserve">Metalmecánico,Agropecuario</t>
   </si>
   <si>
     <t xml:space="preserve">talagante.direccion@snaeduca.cl</t>
@@ -861,7 +855,7 @@
     <t xml:space="preserve">Los Angeles</t>
   </si>
   <si>
-    <t xml:space="preserve">Maderero, Agropecuario, Electricidad</t>
+    <t xml:space="preserve">Maderero,Agropecuario,Electricidad</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.liceoelhuerton.cl/</t>
@@ -891,7 +885,7 @@
     <t xml:space="preserve">Temuco</t>
   </si>
   <si>
-    <t xml:space="preserve">Metalmecánico, Electricidad, Maderero</t>
+    <t xml:space="preserve">Metalmecánico,Electricidad,Maderero</t>
   </si>
   <si>
     <t xml:space="preserve">http://industrialtemuco.cl/</t>
@@ -924,7 +918,7 @@
     <t xml:space="preserve">Curacautín</t>
   </si>
   <si>
-    <t xml:space="preserve">Metalmecánico, Alimentación</t>
+    <t xml:space="preserve">Metalmecánico,Alimentación</t>
   </si>
   <si>
     <t xml:space="preserve">Curacautin.direccion@snaeduca.cl</t>
@@ -1158,7 +1152,7 @@
     <t xml:space="preserve">-34.5893357, -70.98568749999998</t>
   </si>
   <si>
-    <t xml:space="preserve">Confección, Alimentación, Programas y Proyectos Sociales</t>
+    <t xml:space="preserve">Confección, Alimentación,Programas y Proyectos Sociales</t>
   </si>
   <si>
     <t xml:space="preserve">http://felisatolup.cl/</t>
@@ -1182,7 +1176,7 @@
     <t xml:space="preserve">-34.17670219999999, -70.74273590000001</t>
   </si>
   <si>
-    <t xml:space="preserve">Administración y Comercio, Alimentación, Programas y Proyectos Sociales</t>
+    <t xml:space="preserve">Administración y Comercio,Alimentación,Programas y Proyectos Sociales</t>
   </si>
   <si>
     <t xml:space="preserve">http://liceotr.cl/</t>
@@ -1209,7 +1203,7 @@
     <t xml:space="preserve">Curicó</t>
   </si>
   <si>
-    <t xml:space="preserve">Administración y Comercio, Construcción, Metalmecánico, Electricidad, Confección, Programas y Proyectos sociales</t>
+    <t xml:space="preserve">Administración y Comercio,Construcción,Metalmecánico,Electricidad,Confección,Programas y Proyectos sociales</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.politecnicojuanterrier.cl/inicio/</t>
@@ -1257,27 +1251,30 @@
     <t xml:space="preserve">-36.6057951, -72.10442510000001</t>
   </si>
   <si>
+    <t xml:space="preserve">Alimentación,Programas y Proyectos sociales,Hotelería y Turismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://institutotecnico.cl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atención Adulto Mayor, Atención Enfermería, Atención de Párvulos, Gastronomía, Servicios Hoteleros, Servicios de Alimentación Colectiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.comeduc.cl/wp-content/uploads/2016/05/logo_18.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liceo José María Narbona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coventry 244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-33.452031, -70.580332</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alimentación, Programas y Proyectos sociales, Hotelería y Turismo</t>
   </si>
   <si>
-    <t xml:space="preserve">http://institutotecnico.cl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atención Adulto Mayor, Atención Enfermería, Atención de Párvulos, Gastronomía, Servicios Hoteleros, Servicios de Alimentación Colectiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.comeduc.cl/wp-content/uploads/2016/05/logo_18.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liceo José María Narbona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coventry 244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-33.452031, -70.580332</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://www.liceojmn.cl/</t>
   </si>
   <si>
@@ -1302,7 +1299,7 @@
     <t xml:space="preserve">-33.4517841, -70.59155829999997</t>
   </si>
   <si>
-    <t xml:space="preserve">Administración y Comercio, Gráfica</t>
+    <t xml:space="preserve">Administración y Comercio,Gráfica</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.liceogabrielgonzalez.cl/</t>
@@ -1359,7 +1356,7 @@
     <t xml:space="preserve">Pedro Aguirre Cerda</t>
   </si>
   <si>
-    <t xml:space="preserve">Alimentación, Programas y Proyectos sociales</t>
+    <t xml:space="preserve">Alimentación,Programas y Proyectos sociales</t>
   </si>
   <si>
     <t xml:space="preserve">http://clotarioblest.cl/</t>
@@ -1410,7 +1407,7 @@
     <t xml:space="preserve">-33.41212160000001, -70.63768170000003</t>
   </si>
   <si>
-    <t xml:space="preserve">Administración y Comercio, Electricidad</t>
+    <t xml:space="preserve">Administración y Comercio,Electricidad</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.intecorecoleta.cl/</t>
@@ -1556,7 +1553,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1579,7 +1575,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1587,14 +1582,12 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1602,14 +1595,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1617,14 +1608,12 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1815,32 +1804,32 @@
   </sheetPr>
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="56.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.919028340081"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.89068825910931"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="3" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="3" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="43.7044534412956"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="86.8744939271255"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="70.9109311740891"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="127.259109311741"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="87.6234817813765"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="71.4493927125506"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="128.327935222672"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2644,6 +2633,7 @@
       <c r="I12" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J12" s="0"/>
       <c r="K12" s="0"/>
       <c r="M12" s="0" t="s">
         <v>142</v>
@@ -4361,7 +4351,7 @@
         <v>315</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>3</v>
@@ -4371,25 +4361,25 @@
         <v>0.639</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O38" s="0" t="n">
         <v>565</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S38" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="T38" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>252</v>
@@ -4409,22 +4399,22 @@
         <v>4</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>315</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>2</v>
@@ -4434,25 +4424,25 @@
         <v>0.989</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O39" s="0" t="n">
         <v>517</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="R39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S39" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="T39" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>272</v>
@@ -4472,19 +4462,19 @@
         <v>4</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>325</v>
@@ -4497,25 +4487,25 @@
         <v>0.787</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O40" s="0" t="n">
         <v>314</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="T40" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>256</v>
@@ -4535,22 +4525,22 @@
         <v>4</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>1</v>
@@ -4560,25 +4550,25 @@
         <v>0.604</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O41" s="0" t="n">
         <v>278</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S41" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="T41" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>249</v>
@@ -4598,19 +4588,19 @@
         <v>4</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>325</v>
@@ -4621,25 +4611,25 @@
       <c r="J42" s="0"/>
       <c r="K42" s="0"/>
       <c r="M42" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O42" s="0" t="n">
         <v>243</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S42" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="T42" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>241</v>
@@ -4659,22 +4649,22 @@
         <v>4</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>96</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>2</v>
@@ -4682,22 +4672,22 @@
       <c r="J43" s="0"/>
       <c r="K43" s="0"/>
       <c r="M43" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O43" s="0" t="n">
         <v>447</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T43" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="U43" s="9" t="n">
         <v>258</v>
@@ -4717,16 +4707,16 @@
         <v>4</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>96</v>
@@ -4742,25 +4732,25 @@
         <v>0.921</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O44" s="0" t="n">
         <v>640</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R44" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="U44" s="9" t="n">
         <v>245</v>
@@ -4780,16 +4770,16 @@
         <v>4</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>107</v>
@@ -4805,25 +4795,25 @@
         <v>0.854</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O45" s="0" t="n">
         <v>627</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="R45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S45" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T45" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>249</v>
@@ -4843,16 +4833,16 @@
         <v>4</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>107</v>
@@ -4868,25 +4858,25 @@
         <v>0.804</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O46" s="0" t="n">
         <v>764</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S46" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T46" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>241</v>
@@ -4906,19 +4896,19 @@
         <v>4</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>325</v>
@@ -4931,25 +4921,25 @@
         <v>0.791</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O47" s="0" t="n">
         <v>1238</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="R47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S47" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="T47" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>227</v>
@@ -4969,16 +4959,16 @@
         <v>4</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>63</v>
@@ -4994,25 +4984,25 @@
         <v>0.812</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O48" s="0" t="n">
         <v>775</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="R48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S48" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="T48" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>252</v>

--- a/src/components/media/CPC-WEB.xlsx
+++ b/src/components/media/CPC-WEB.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Hoja1!$1:$1048576</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$W$48</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$T$48</definedName>
     <definedName function="false" hidden="false" name="tabla" vbProcedure="false">Hoja1!$A$1:$T$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Hoja1!$1:$1048576</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Hoja1!$1:$1048576</definedName>
@@ -21,13 +21,15 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">Hoja1!$1:$1048576</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">Hoja1!$1:$1048576</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">Hoja1!$1:$1048576</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$T$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">Hoja1!$1:$1048576</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$W$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hoja1!$A$1:$T$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hoja1!$A$1:$T$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hoja1!$A$1:$T$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hoja1!$A$1:$T$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hoja1!$A$1:$T$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hoja1!$A$1:$T$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hoja1!$A$1:$T$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -153,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="466">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -465,6 +467,9 @@
   </si>
   <si>
     <t xml:space="preserve">http://www.coreduc.cl/rdc/nuestro-liceo/consejo-asesor-empresarial-r/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propia-0</t>
   </si>
   <si>
     <t xml:space="preserve">https://media.licdn.com/mpr/mpr/shrinknp_200_200/p/1/005/07b/1c6/209fa12.jpg</t>
@@ -502,6 +507,9 @@
     <t xml:space="preserve">http://www.coreduc.cl/vbs/nuestro-liceo/consejo-asesor-empresarial-v/</t>
   </si>
   <si>
+    <t xml:space="preserve">Propia1</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://media.licdn.com/mpr/mpr/shrinknp_200_200/p/8/005/07b/1c4/11d0321.jpg</t>
   </si>
   <si>
@@ -533,6 +541,9 @@
   </si>
   <si>
     <t xml:space="preserve">http://www.coreduc.cl/epl/nuestro-liceo/consejo-asesor-empresarial-e/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://elrancaguino.cl/wp-content/uploads/2016/06/LICEO-2.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">https://i1.sndcdn.com/artworks-000133300215-brb109-t500x500.jpg</t>
@@ -1822,32 +1833,32 @@
   </sheetPr>
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T37" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:W48"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R16" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S12" activeCellId="0" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="56.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.5627530364373"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.89068825910931"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="3" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="3" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="44.3481781376518"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="61.0566801619433"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="88.4817813765182"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="72.0890688259109"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="129.506072874494"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="61.5951417004049"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="89.2307692307692"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="72.7327935222672"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="130.684210526316"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2406,8 +2417,11 @@
       <c r="R8" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="S8" s="0" t="s">
+        <v>103</v>
+      </c>
       <c r="T8" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>272</v>
@@ -2427,22 +2441,22 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>3</v>
@@ -2457,25 +2471,28 @@
         <v>1</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>488</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>252</v>
@@ -2495,22 +2512,22 @@
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>4</v>
@@ -2525,25 +2542,28 @@
         <v>0.95</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>1317</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>127</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="U10" s="9" t="n">
         <v>266</v>
@@ -2563,22 +2583,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>5</v>
@@ -2593,25 +2613,25 @@
         <v>0.987</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>700</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="U11" s="9" t="n">
         <v>211</v>
@@ -2631,22 +2651,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>1</v>
@@ -2654,25 +2674,25 @@
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
       <c r="M12" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O12" s="0" t="n">
         <v>736</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>249</v>
@@ -2692,22 +2712,22 @@
         <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>2</v>
@@ -2722,28 +2742,28 @@
         <v>0.956</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>414</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="U13" s="9" t="n">
         <v>237</v>
@@ -2763,22 +2783,22 @@
         <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>2</v>
@@ -2793,25 +2813,25 @@
         <v>0.983</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>407</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="U14" s="9" t="n">
         <v>243</v>
@@ -2831,19 +2851,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>64</v>
@@ -2861,25 +2881,25 @@
         <v>1</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>1045</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="U15" s="9" t="n">
         <v>276</v>
@@ -2899,22 +2919,22 @@
         <v>2</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>2</v>
@@ -2927,22 +2947,22 @@
         <v>1</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O16" s="0" t="n">
         <v>350</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>229</v>
@@ -2962,22 +2982,22 @@
         <v>2</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>1</v>
@@ -2992,28 +3012,28 @@
         <v>0.982</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>422</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="U17" s="9" t="n">
         <v>241</v>
@@ -3033,22 +3053,22 @@
         <v>2</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>1</v>
@@ -3063,28 +3083,28 @@
         <v>0.957</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>337</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="U18" s="9" t="n">
         <v>244</v>
@@ -3104,22 +3124,22 @@
         <v>2</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>1</v>
@@ -3134,28 +3154,28 @@
         <v>0.924</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O19" s="0" t="n">
         <v>289</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S19" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="U19" s="9" t="n">
         <v>241</v>
@@ -3175,22 +3195,22 @@
         <v>2</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>2</v>
@@ -3205,28 +3225,28 @@
         <v>0.85</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O20" s="0" t="n">
         <v>246</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="U20" s="9" t="n">
         <v>218</v>
@@ -3246,22 +3266,22 @@
         <v>2</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>1</v>
@@ -3276,25 +3296,25 @@
         <v>0.885</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O21" s="0" t="n">
         <v>288</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="U21" s="9" t="n">
         <v>256</v>
@@ -3314,22 +3334,22 @@
         <v>2</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>2</v>
@@ -3344,28 +3364,28 @@
         <v>0.871</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O22" s="0" t="n">
         <v>315</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S22" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="U22" s="9" t="n">
         <v>231</v>
@@ -3385,22 +3405,22 @@
         <v>2</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>3</v>
@@ -3415,28 +3435,28 @@
         <v>0.938</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>657</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>203</v>
@@ -3456,22 +3476,22 @@
         <v>2</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>2</v>
@@ -3486,20 +3506,20 @@
         <v>0.962</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O24" s="0" t="n">
         <v>385</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="R24" s="0"/>
       <c r="T24" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="U24" s="9" t="n">
         <v>211</v>
@@ -3519,22 +3539,22 @@
         <v>2</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>1</v>
@@ -3547,25 +3567,25 @@
         <v>1</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="O25" s="0" t="n">
         <v>217</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>242</v>
@@ -3585,22 +3605,22 @@
         <v>2</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>1</v>
@@ -3613,28 +3633,28 @@
         <v>0.798</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>271</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>252</v>
@@ -3654,19 +3674,19 @@
         <v>2</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>64</v>
@@ -3682,25 +3702,25 @@
         <v>1</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>1002</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>279</v>
@@ -3720,22 +3740,22 @@
         <v>2</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>1</v>
@@ -3750,28 +3770,28 @@
         <v>1</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>418</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>265</v>
@@ -3791,22 +3811,22 @@
         <v>2</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>2</v>
@@ -3819,23 +3839,23 @@
         <v>0.937</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>355</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="R29" s="0"/>
       <c r="T29" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>249</v>
@@ -3855,22 +3875,22 @@
         <v>2</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>2</v>
@@ -3885,25 +3905,25 @@
         <v>0.977</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>167</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>230</v>
@@ -3923,19 +3943,19 @@
         <v>3</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>52</v>
@@ -3953,25 +3973,25 @@
         <v>0.98</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="O31" s="0" t="n">
         <v>800</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="R31" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S31" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="T31" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>232</v>
@@ -3991,22 +4011,22 @@
         <v>4</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>1</v>
@@ -4016,25 +4036,25 @@
         <v>0.943</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="O32" s="0" t="n">
         <v>667</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="R32" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S32" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="U32" s="9" t="n">
         <v>220</v>
@@ -4054,22 +4074,22 @@
         <v>4</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>3</v>
@@ -4079,22 +4099,22 @@
         <v>0.874</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="O33" s="0" t="n">
         <v>700</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="R33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="U33" s="9" t="n">
         <v>245</v>
@@ -4114,22 +4134,22 @@
         <v>4</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>3</v>
@@ -4139,22 +4159,22 @@
         <v>0.451</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="O34" s="0" t="n">
         <v>632</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="R34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="U34" s="9" t="n">
         <v>258</v>
@@ -4174,22 +4194,22 @@
         <v>4</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>6</v>
@@ -4199,25 +4219,25 @@
         <v>0.825</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O35" s="0" t="n">
         <v>1293</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="R35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S35" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="U35" s="9" t="n">
         <v>219</v>
@@ -4237,22 +4257,22 @@
         <v>4</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>1</v>
@@ -4262,22 +4282,22 @@
         <v>0.695</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="O36" s="0" t="n">
         <v>1293</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="R36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T36" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="U36" s="9" t="n">
         <v>235</v>
@@ -4297,22 +4317,22 @@
         <v>4</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>3</v>
@@ -4322,19 +4342,19 @@
         <v>0.871</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="O37" s="0" t="n">
         <v>622</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="R37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="U37" s="9" t="n">
         <v>250</v>
@@ -4354,22 +4374,22 @@
         <v>4</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>3</v>
@@ -4379,25 +4399,25 @@
         <v>0.639</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O38" s="0" t="n">
         <v>565</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S38" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="T38" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>227</v>
@@ -4417,22 +4437,22 @@
         <v>4</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>2</v>
@@ -4442,25 +4462,25 @@
         <v>0.989</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="O39" s="0" t="n">
         <v>517</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="R39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S39" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="T39" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>241</v>
@@ -4480,22 +4500,22 @@
         <v>4</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>1</v>
@@ -4505,25 +4525,25 @@
         <v>0.787</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="O40" s="0" t="n">
         <v>314</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="R40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="T40" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>241</v>
@@ -4543,22 +4563,22 @@
         <v>4</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>1</v>
@@ -4568,25 +4588,25 @@
         <v>0.604</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="O41" s="0" t="n">
         <v>278</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S41" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="T41" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>241</v>
@@ -4606,22 +4626,22 @@
         <v>4</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>1</v>
@@ -4629,25 +4649,25 @@
       <c r="J42" s="0"/>
       <c r="K42" s="0"/>
       <c r="M42" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="O42" s="0" t="n">
         <v>243</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="R42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S42" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="T42" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>231</v>
@@ -4667,22 +4687,22 @@
         <v>4</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>96</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>2</v>
@@ -4690,22 +4710,22 @@
       <c r="J43" s="0"/>
       <c r="K43" s="0"/>
       <c r="M43" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="O43" s="0" t="n">
         <v>447</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="R43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T43" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>234</v>
@@ -4725,22 +4745,22 @@
         <v>4</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>96</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>1</v>
@@ -4750,25 +4770,25 @@
         <v>0.921</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="O44" s="0" t="n">
         <v>640</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="R44" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>245</v>
@@ -4788,22 +4808,22 @@
         <v>4</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>3</v>
@@ -4813,25 +4833,25 @@
         <v>0.854</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="O45" s="0" t="n">
         <v>627</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="R45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S45" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="T45" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>236</v>
@@ -4851,22 +4871,22 @@
         <v>4</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>1</v>
@@ -4876,25 +4896,25 @@
         <v>0.804</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="O46" s="0" t="n">
         <v>764</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="R46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S46" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="T46" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>257</v>
@@ -4914,22 +4934,22 @@
         <v>4</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>1</v>
@@ -4939,25 +4959,25 @@
         <v>0.791</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O47" s="0" t="n">
         <v>1238</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="R47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S47" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="T47" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>244</v>
@@ -4977,22 +4997,22 @@
         <v>4</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>63</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>1</v>
@@ -5002,25 +5022,25 @@
         <v>0.812</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="O48" s="0" t="n">
         <v>775</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="R48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S48" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="T48" s="0" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>235</v>
@@ -5038,7 +5058,7 @@
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:W48"/>
+  <autoFilter ref="A1:T48"/>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId2" display="http://www.liceorbl.cl/v.7/index.php/form-contacto "/>
     <hyperlink ref="S2" r:id="rId3" display="http://www.liceorbl.cl/v.7/images/foto%20fachada640x480.jpg "/>
